--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/customer-seed-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="544" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="544"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,7 +58,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="348">
   <si>
     <t>ACTION</t>
   </si>
@@ -441,36 +441,6 @@
     <t>Thick hair</t>
   </si>
   <si>
-    <t>ht00</t>
-  </si>
-  <si>
-    <t>ht01</t>
-  </si>
-  <si>
-    <t>ht02</t>
-  </si>
-  <si>
-    <t>ht03</t>
-  </si>
-  <si>
-    <t>ht04</t>
-  </si>
-  <si>
-    <t>ht05</t>
-  </si>
-  <si>
-    <t>ht06</t>
-  </si>
-  <si>
-    <t>ht07</t>
-  </si>
-  <si>
-    <t>ht08</t>
-  </si>
-  <si>
-    <t>ht09</t>
-  </si>
-  <si>
     <t>/~/images/mam/-120391-1.png</t>
   </si>
   <si>
@@ -492,12 +462,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>c0</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>Attribute 6</t>
   </si>
   <si>
@@ -585,24 +549,6 @@
     <t>Body - Hand Cream &amp; Soap</t>
   </si>
   <si>
-    <t>tn0101</t>
-  </si>
-  <si>
-    <t>tn0102</t>
-  </si>
-  <si>
-    <t>tn0103</t>
-  </si>
-  <si>
-    <t>tn0201</t>
-  </si>
-  <si>
-    <t>tn0202</t>
-  </si>
-  <si>
-    <t>tn0203</t>
-  </si>
-  <si>
     <t>Baby/Kids - Care (Baby)</t>
   </si>
   <si>
@@ -612,69 +558,36 @@
     <t>Baby/Kids - Suncare (Baby)</t>
   </si>
   <si>
-    <t>tn0301</t>
-  </si>
-  <si>
     <t>Face - Cleansers &amp; Toners</t>
   </si>
   <si>
-    <t>tr01</t>
-  </si>
-  <si>
     <t>After Shave</t>
   </si>
   <si>
-    <t>tr02</t>
-  </si>
-  <si>
     <t>Baby</t>
   </si>
   <si>
-    <t>tr03</t>
-  </si>
-  <si>
     <t>Bath Care</t>
   </si>
   <si>
-    <t>tr04</t>
-  </si>
-  <si>
     <t>Deo</t>
   </si>
   <si>
-    <t>tr05</t>
-  </si>
-  <si>
     <t>Depillatories</t>
   </si>
   <si>
-    <t>tr06</t>
-  </si>
-  <si>
     <t>Face Care</t>
   </si>
   <si>
-    <t>tr07</t>
-  </si>
-  <si>
     <t>Foot Care</t>
   </si>
   <si>
-    <t>tr08</t>
-  </si>
-  <si>
     <t>Hair Care</t>
   </si>
   <si>
-    <t>tr09</t>
-  </si>
-  <si>
     <t>Hairstyling</t>
   </si>
   <si>
-    <t>tr10</t>
-  </si>
-  <si>
     <t>Lip Care</t>
   </si>
   <si>
@@ -1054,12 +967,180 @@
   </si>
   <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>dgender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>dpvregions</t>
+  </si>
+  <si>
+    <t>PV Regions</t>
+  </si>
+  <si>
+    <t>Gender Key</t>
+  </si>
+  <si>
+    <t>Gender Label</t>
+  </si>
+  <si>
+    <t>PV Region Key</t>
+  </si>
+  <si>
+    <t>PV Region Label</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Near East</t>
+  </si>
+  <si>
+    <t>CEE</t>
+  </si>
+  <si>
+    <t>zg01</t>
+  </si>
+  <si>
+    <t>zg02</t>
+  </si>
+  <si>
+    <t>zg03</t>
+  </si>
+  <si>
+    <t>zg04</t>
+  </si>
+  <si>
+    <t>zg05</t>
+  </si>
+  <si>
+    <t>zpvr01</t>
+  </si>
+  <si>
+    <t>zpvr02</t>
+  </si>
+  <si>
+    <t>zpvr03</t>
+  </si>
+  <si>
+    <t>zpvr04</t>
+  </si>
+  <si>
+    <t>ztr10</t>
+  </si>
+  <si>
+    <t>zc0</t>
+  </si>
+  <si>
+    <t>zc1</t>
+  </si>
+  <si>
+    <t>zht00</t>
+  </si>
+  <si>
+    <t>zht01</t>
+  </si>
+  <si>
+    <t>zht02</t>
+  </si>
+  <si>
+    <t>zht03</t>
+  </si>
+  <si>
+    <t>zht04</t>
+  </si>
+  <si>
+    <t>zht05</t>
+  </si>
+  <si>
+    <t>zht06</t>
+  </si>
+  <si>
+    <t>zht07</t>
+  </si>
+  <si>
+    <t>zht08</t>
+  </si>
+  <si>
+    <t>zht09</t>
+  </si>
+  <si>
+    <t>ztn0101</t>
+  </si>
+  <si>
+    <t>ztn0102</t>
+  </si>
+  <si>
+    <t>ztn0103</t>
+  </si>
+  <si>
+    <t>ztn0201</t>
+  </si>
+  <si>
+    <t>ztn0202</t>
+  </si>
+  <si>
+    <t>ztn0203</t>
+  </si>
+  <si>
+    <t>ztn0301</t>
+  </si>
+  <si>
+    <t>ztr01</t>
+  </si>
+  <si>
+    <t>ztr02</t>
+  </si>
+  <si>
+    <t>ztr03</t>
+  </si>
+  <si>
+    <t>ztr04</t>
+  </si>
+  <si>
+    <t>ztr05</t>
+  </si>
+  <si>
+    <t>ztr06</t>
+  </si>
+  <si>
+    <t>ztr07</t>
+  </si>
+  <si>
+    <t>ztr08</t>
+  </si>
+  <si>
+    <t>ztr09</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>reference data key values, used to clearly define what is simply "data" and what is not (values starting with c are expected to be Contexts)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -1268,7 +1349,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1316,6 +1397,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -1644,18 +1726,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,7 +1799,7 @@
         <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -1725,10 +1807,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>76</v>
@@ -1736,10 +1818,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>95</v>
@@ -1747,10 +1829,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>96</v>
@@ -1758,10 +1840,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>97</v>
@@ -1769,10 +1851,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>98</v>
@@ -1780,21 +1862,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>99</v>
@@ -1802,10 +1884,10 @@
     </row>
     <row r="28" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>103</v>
@@ -1813,21 +1895,21 @@
     </row>
     <row r="29" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>100</v>
@@ -1835,55 +1917,66 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>160</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1902,21 +1995,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,11 +2146,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2069,22 +2162,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D9"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2098,82 +2191,98 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:D1194"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D1194"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:D1194"/>
     </customSheetView>
@@ -2184,37 +2293,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2273,9 +2382,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -2296,9 +2405,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -2319,77 +2428,77 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -2398,15 +2507,15 @@
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -2415,7 +2524,7 @@
         <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -2424,19 +2533,19 @@
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:S43"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
       <autoFilter ref="A1:S35"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-      <autoFilter ref="A1:S43"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,28 +2555,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2499,21 +2608,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2521,11 +2630,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2537,35 +2646,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P22"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.125" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2615,12 +2724,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29" t="s">
@@ -2643,12 +2752,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -2671,12 +2780,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2691,12 +2800,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2711,74 +2820,74 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P6" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P7" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P8" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>30</v>
@@ -2787,18 +2896,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="M11" s="29" t="s">
         <v>30</v>
@@ -2807,12 +2916,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
@@ -2823,7 +2932,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29" t="s">
@@ -2835,12 +2944,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -2851,7 +2960,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29" t="s">
@@ -2863,12 +2972,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
@@ -2879,7 +2988,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29" t="s">
@@ -2891,12 +3000,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -2907,7 +3016,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29" t="s">
@@ -2919,32 +3028,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
@@ -2953,18 +3062,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -2973,18 +3082,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="M19" s="29" t="s">
         <v>30</v>
@@ -2993,18 +3102,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="M20" s="29" t="s">
         <v>30</v>
@@ -3013,12 +3122,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -3027,18 +3136,134 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
       <c r="P22" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3047,19 +3272,19 @@
     <sortCondition ref="B1"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:P2402"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:P2390"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:P2402"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,36 +3294,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U81"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="35.625" style="28" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="28" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="68.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" style="29" customWidth="1"/>
-    <col min="13" max="15" width="14.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="68.375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="31.625" style="29" customWidth="1"/>
+    <col min="13" max="15" width="14.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="17" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3163,1081 +3388,1180 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>106</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>107</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>109</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>110</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>111</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>114</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>115</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B42" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+    </row>
+    <row r="53" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="H56" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>249</v>
-      </c>
       <c r="H58" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B59" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B60" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>169</v>
+        <v>335</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>189</v>
+        <v>344</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="G81" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>320</v>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:U95065"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
       <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:U88662"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:U95065"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4255,15 +4579,53 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4445,53 +4807,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4503,11 +4827,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4532,9 +4854,11 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="544"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="544" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
-    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="412">
   <si>
     <t>ACTION</t>
   </si>
@@ -1135,6 +1135,198 @@
   </si>
   <si>
     <t>reference data key values, used to clearly define what is simply "data" and what is not (values starting with c are expected to be Contexts)</t>
+  </si>
+  <si>
+    <t>dboolean</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>dbooleangrey</t>
+  </si>
+  <si>
+    <t>Boolean Key</t>
+  </si>
+  <si>
+    <t>zb0</t>
+  </si>
+  <si>
+    <t>zb1</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>zbb</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Critical Key</t>
+  </si>
+  <si>
+    <t>dbenefitfilter</t>
+  </si>
+  <si>
+    <t>Benefit Filter</t>
+  </si>
+  <si>
+    <t>Benefit Filter Key</t>
+  </si>
+  <si>
+    <t>Benefit Filter Label</t>
+  </si>
+  <si>
+    <t>Anti dandruff</t>
+  </si>
+  <si>
+    <t>Deo protection</t>
+  </si>
+  <si>
+    <t>Firming</t>
+  </si>
+  <si>
+    <t>2 in 1</t>
+  </si>
+  <si>
+    <t>Intensive care</t>
+  </si>
+  <si>
+    <t>Moisturizing</t>
+  </si>
+  <si>
+    <t>Nourishing</t>
+  </si>
+  <si>
+    <t>Volumizing</t>
+  </si>
+  <si>
+    <t>Paraben-free</t>
+  </si>
+  <si>
+    <t>Aluminium-free</t>
+  </si>
+  <si>
+    <t>Oil-free</t>
+  </si>
+  <si>
+    <t>Without aerosol</t>
+  </si>
+  <si>
+    <t>100% Professional</t>
+  </si>
+  <si>
+    <t>1 active ingredient</t>
+  </si>
+  <si>
+    <t>1:1 Personal Consultation</t>
+  </si>
+  <si>
+    <t>NIVEA Scent</t>
+  </si>
+  <si>
+    <t>No Ethyl Alcohol</t>
+  </si>
+  <si>
+    <t>zbf01</t>
+  </si>
+  <si>
+    <t>zbf02</t>
+  </si>
+  <si>
+    <t>zbf03</t>
+  </si>
+  <si>
+    <t>zbf04</t>
+  </si>
+  <si>
+    <t>zbf05</t>
+  </si>
+  <si>
+    <t>zbf06</t>
+  </si>
+  <si>
+    <t>zbf07</t>
+  </si>
+  <si>
+    <t>zbf08</t>
+  </si>
+  <si>
+    <t>zbf09</t>
+  </si>
+  <si>
+    <t>zbf10</t>
+  </si>
+  <si>
+    <t>zbf11</t>
+  </si>
+  <si>
+    <t>zbf12</t>
+  </si>
+  <si>
+    <t>zbf13</t>
+  </si>
+  <si>
+    <t>zbf14</t>
+  </si>
+  <si>
+    <t>zbf15</t>
+  </si>
+  <si>
+    <t>zbf16</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120291-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120274-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120278-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120283-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120280-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120281-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120282-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-120290-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-169213-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-150228-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-150227-1.png</t>
+  </si>
+  <si>
+    <t>/~/images/mam/-150226-1.png</t>
+  </si>
+  <si>
+    <t>ficon</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Benefit Filter Icon</t>
+  </si>
+  <si>
+    <t>zbf17</t>
   </si>
 </sst>
 </file>
@@ -1391,13 +1583,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -1729,7 +1921,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1744,55 +1936,55 @@
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
@@ -1972,11 +2164,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1999,7 +2191,7 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2146,11 +2338,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2163,21 +2355,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2191,98 +2383,122 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>190</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>274</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C12" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C13" s="29" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:D1194"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D1194"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:D1194"/>
     </customSheetView>
@@ -2294,16 +2510,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
@@ -2323,7 +2539,7 @@
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>194</v>
       </c>
@@ -2405,7 +2621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>195</v>
       </c>
@@ -2428,7 +2644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>196</v>
       </c>
@@ -2445,7 +2661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>197</v>
       </c>
@@ -2462,7 +2678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>198</v>
       </c>
@@ -2479,7 +2695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>199</v>
       </c>
@@ -2496,56 +2712,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" t="s">
         <v>99</v>
       </c>
       <c r="F9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
         <v>279</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:S35"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
       <autoFilter ref="A1:S43"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-      <autoFilter ref="A1:S35"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2564,7 +2797,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
@@ -2608,7 +2841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>200</v>
       </c>
@@ -2630,11 +2863,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2647,16 +2880,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
@@ -2674,7 +2907,7 @@
     <col min="16" max="16" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2724,9 +2957,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>194</v>
@@ -2740,7 +2973,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29" t="s">
-        <v>105</v>
+        <v>351</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29" t="s">
@@ -2752,9 +2985,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>195</v>
@@ -2768,7 +3001,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29" t="s">
@@ -2780,491 +3013,632 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>189</v>
+    <row r="4" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>189</v>
-      </c>
       <c r="D8" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K13" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P13" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+    <row r="14" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>201</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
       <c r="K14" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="29"/>
+        <v>173</v>
+      </c>
       <c r="M14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
       <c r="P14" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
       <c r="K15" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" s="29"/>
+        <v>174</v>
+      </c>
       <c r="M15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
       <c r="P15" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P17" t="s">
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="29" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K18" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="29" t="s">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="L19" s="29"/>
       <c r="M19" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>74</v>
+        <v>201</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" t="s">
         <v>30</v>
       </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
       <c r="P21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="29"/>
+        <v>193</v>
+      </c>
       <c r="D23" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="29"/>
       <c r="F23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
       <c r="K23" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="L23" s="29"/>
+        <v>170</v>
+      </c>
       <c r="M23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
       <c r="P23" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="29"/>
+        <v>193</v>
+      </c>
       <c r="D24" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
       <c r="K24" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="L24" s="29"/>
+        <v>171</v>
+      </c>
       <c r="M24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
       <c r="P24" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29" t="s">
+      <c r="L29" s="29"/>
+      <c r="M29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29" t="s">
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29" t="s">
+      <c r="L30" s="29"/>
+      <c r="M30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="K31" t="s">
+        <v>361</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>362</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" t="s">
+        <v>408</v>
+      </c>
+      <c r="K33" t="s">
+        <v>410</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1"/>
@@ -3272,19 +3646,19 @@
     <sortCondition ref="B1"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:P2390"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:P2402"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:P2390"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,24 +3669,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="35.625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.625" style="28" customWidth="1"/>
     <col min="11" max="11" width="68.375" style="29" customWidth="1"/>
     <col min="12" max="12" width="31.625" style="29" customWidth="1"/>
@@ -3323,7 +3697,7 @@
     <col min="22" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3388,152 +3762,92 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H7" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>189</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>125</v>
@@ -3548,15 +3862,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>189</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>125</v>
@@ -3571,15 +3885,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>189</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>125</v>
@@ -3594,15 +3908,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>189</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>125</v>
@@ -3617,15 +3931,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>189</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>125</v>
@@ -3640,478 +3954,571 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.95" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>190</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>190</v>
       </c>
       <c r="G20" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H25" s="29" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G49" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H54" s="29" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
         <v>201</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>217</v>
@@ -4119,189 +4526,224 @@
       <c r="H55" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>201</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
         <v>201</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="29" t="s">
         <v>201</v>
       </c>
       <c r="F58" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G62" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H63" s="28" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B60" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B62" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" s="29" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
         <v>192</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
         <v>192</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="2:10" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
@@ -4311,10 +4753,10 @@
         <v>193</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
@@ -4324,10 +4766,10 @@
         <v>193</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -4337,10 +4779,10 @@
         <v>193</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
@@ -4350,10 +4792,10 @@
         <v>193</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
@@ -4363,205 +4805,508 @@
         <v>193</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>281</v>
+        <v>193</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>283</v>
+        <v>193</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>285</v>
+        <v>193</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>287</v>
+        <v>193</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>289</v>
+        <v>193</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="H86" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="29" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G82" s="28" t="s">
+      <c r="G87" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H87" s="28" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G88" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="H83" s="28" t="s">
+      <c r="H88" s="28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="29" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G89" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H89" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="29" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G90" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="H90" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="29" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G91" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H91" s="28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="29" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G92" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H92" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="29" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G93" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H93" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="29" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G94" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="H94" s="28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="29" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="G90" s="28" t="s">
+      <c r="G95" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="H90" s="28" t="s">
+      <c r="H95" s="28" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="H104" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H105" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="I112" s="28" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
+      <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:U88662"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:U95065"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
-      <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:U88662"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4579,53 +5324,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4807,15 +5514,53 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4827,9 +5572,11 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4854,11 +5601,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="544" activeTab="6"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="544" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,7 +58,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -1918,18 +1918,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="90.625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,11 +2164,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2187,21 +2187,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,11 +2338,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2354,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,10 +2362,10 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2490,15 +2490,15 @@
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:D1194"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D1194"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:D1194"/>
     </customSheetView>
@@ -2509,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,26 +2517,26 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2766,19 +2766,19 @@
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:S43"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
       <autoFilter ref="A1:S35"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-      <autoFilter ref="A1:S43"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2788,28 +2788,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2863,11 +2863,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2879,7 +2879,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,24 +2887,24 @@
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="19.125" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3646,19 +3646,19 @@
     <sortCondition ref="B1"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:P2402"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:P2390"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:P2402"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3668,31 +3668,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="28" customWidth="1"/>
     <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="68.375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="31.625" style="29" customWidth="1"/>
-    <col min="13" max="15" width="14.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="68.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" style="29" customWidth="1"/>
+    <col min="13" max="15" width="14.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="17" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11" style="29"/>
   </cols>
@@ -5294,19 +5294,19 @@
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <customSheetViews>
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:U95065"/>
+    </customSheetView>
     <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
       <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:U88662"/>
-    </customSheetView>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:U95065"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5316,6 +5316,56 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -5323,7 +5373,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
@@ -5335,7 +5385,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -5513,57 +5563,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB6AEA0-3DF2-4494-BDE5-510837701A22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5571,7 +5579,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5581,7 +5589,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D230FB-949A-4A81-A3AC-DBDE1CC696FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5598,12 +5606,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Reference Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="544" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="544" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,8 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1676" windowHeight="854" tabRatio="500" activeSheetId="7"/>
-    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1360" windowHeight="539" tabRatio="500" activeSheetId="7"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,7 +58,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="974">
   <si>
     <t>ACTION</t>
   </si>
@@ -663,9 +663,6 @@
     <t>dhairtype</t>
   </si>
   <si>
-    <t>dnarttype</t>
-  </si>
-  <si>
     <t>dcountry</t>
   </si>
   <si>
@@ -1155,12 +1152,6 @@
     <t>zb1</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>zbb</t>
   </si>
   <si>
@@ -1327,12 +1318,1707 @@
   </si>
   <si>
     <t>zbf17</t>
+  </si>
+  <si>
+    <t>dentitytype</t>
+  </si>
+  <si>
+    <t>Entity Type</t>
+  </si>
+  <si>
+    <t>cmasterproduct</t>
+  </si>
+  <si>
+    <t>Master Product</t>
+  </si>
+  <si>
+    <t>cproductversion</t>
+  </si>
+  <si>
+    <t>Product Version</t>
+  </si>
+  <si>
+    <t>dcarecategory</t>
+  </si>
+  <si>
+    <t>Care Category</t>
+  </si>
+  <si>
+    <t>Care Category Id</t>
+  </si>
+  <si>
+    <t>zcc01</t>
+  </si>
+  <si>
+    <t>zcc02</t>
+  </si>
+  <si>
+    <t>baby bathing</t>
+  </si>
+  <si>
+    <t>antiperspirat protection</t>
+  </si>
+  <si>
+    <t>zcc03</t>
+  </si>
+  <si>
+    <t>baby care</t>
+  </si>
+  <si>
+    <t>zcc04</t>
+  </si>
+  <si>
+    <t>bath care</t>
+  </si>
+  <si>
+    <t>zcc05</t>
+  </si>
+  <si>
+    <t>body care</t>
+  </si>
+  <si>
+    <t>zcc06</t>
+  </si>
+  <si>
+    <t>care soap</t>
+  </si>
+  <si>
+    <t>deo protection</t>
+  </si>
+  <si>
+    <t>exclusive face care</t>
+  </si>
+  <si>
+    <t>eye care</t>
+  </si>
+  <si>
+    <t>face care</t>
+  </si>
+  <si>
+    <t>face cleansing</t>
+  </si>
+  <si>
+    <t>hair care</t>
+  </si>
+  <si>
+    <t>hair styling</t>
+  </si>
+  <si>
+    <t>hand care</t>
+  </si>
+  <si>
+    <t>intimate care</t>
+  </si>
+  <si>
+    <t>lip care</t>
+  </si>
+  <si>
+    <t>shaving</t>
+  </si>
+  <si>
+    <t>shower care</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>sun care</t>
+  </si>
+  <si>
+    <t>universal care</t>
+  </si>
+  <si>
+    <t>zcc07</t>
+  </si>
+  <si>
+    <t>zcc08</t>
+  </si>
+  <si>
+    <t>zcc09</t>
+  </si>
+  <si>
+    <t>zcc10</t>
+  </si>
+  <si>
+    <t>zcc11</t>
+  </si>
+  <si>
+    <t>zcc12</t>
+  </si>
+  <si>
+    <t>zcc13</t>
+  </si>
+  <si>
+    <t>zcc14</t>
+  </si>
+  <si>
+    <t>zcc15</t>
+  </si>
+  <si>
+    <t>zcc16</t>
+  </si>
+  <si>
+    <t>zcc17</t>
+  </si>
+  <si>
+    <t>zcc18</t>
+  </si>
+  <si>
+    <t>zcc19</t>
+  </si>
+  <si>
+    <t>zcc20</t>
+  </si>
+  <si>
+    <t>zcc21</t>
+  </si>
+  <si>
+    <t>dfragrance</t>
+  </si>
+  <si>
+    <t>Fragrance</t>
+  </si>
+  <si>
+    <t>Fragrance Id</t>
+  </si>
+  <si>
+    <t>zfr01</t>
+  </si>
+  <si>
+    <t>flowery</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>fruity</t>
+  </si>
+  <si>
+    <t>Gentle fragrance</t>
+  </si>
+  <si>
+    <t>invigorating</t>
+  </si>
+  <si>
+    <t>masculine</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>Neutral fragrance</t>
+  </si>
+  <si>
+    <t>NIVEA Creme</t>
+  </si>
+  <si>
+    <t>perfumed</t>
+  </si>
+  <si>
+    <t>Refreshing fragrance</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>unperfumed</t>
+  </si>
+  <si>
+    <t>unscented</t>
+  </si>
+  <si>
+    <t>zfr02</t>
+  </si>
+  <si>
+    <t>zfr03</t>
+  </si>
+  <si>
+    <t>zfr04</t>
+  </si>
+  <si>
+    <t>zfr05</t>
+  </si>
+  <si>
+    <t>zfr06</t>
+  </si>
+  <si>
+    <t>zfr07</t>
+  </si>
+  <si>
+    <t>zfr08</t>
+  </si>
+  <si>
+    <t>zfr09</t>
+  </si>
+  <si>
+    <t>zfr10</t>
+  </si>
+  <si>
+    <t>zfr11</t>
+  </si>
+  <si>
+    <t>zfr12</t>
+  </si>
+  <si>
+    <t>zfr13</t>
+  </si>
+  <si>
+    <t>zfr14</t>
+  </si>
+  <si>
+    <t>dmarscampaign</t>
+  </si>
+  <si>
+    <t>MARS Campaign ID</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>FACE Vital Premium (Soy)</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>BODY Repair &amp; Care</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>BODY Pure &amp; Natural</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>BODY Express Hydration</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>FACE Vital Basic (Calcium or Argan) Care</t>
+  </si>
+  <si>
+    <t>C121</t>
+  </si>
+  <si>
+    <t>FACE Vital Basic (Calcium or Argan) Cl</t>
+  </si>
+  <si>
+    <t>C124</t>
+  </si>
+  <si>
+    <t>FACE Pure Effect Cleansing</t>
+  </si>
+  <si>
+    <t>C125</t>
+  </si>
+  <si>
+    <t>FACE Whitening Care (all products)</t>
+  </si>
+  <si>
+    <t>C126</t>
+  </si>
+  <si>
+    <t>FACE Whitening Cleansing (all products)</t>
+  </si>
+  <si>
+    <t>C131</t>
+  </si>
+  <si>
+    <t>SUN Kids all products</t>
+  </si>
+  <si>
+    <t>C133</t>
+  </si>
+  <si>
+    <t>DEO Dry (female)</t>
+  </si>
+  <si>
+    <t>C134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEO Pure &amp; Natural </t>
+  </si>
+  <si>
+    <t>C135</t>
+  </si>
+  <si>
+    <t>DEO Black &amp; White (female)</t>
+  </si>
+  <si>
+    <t>C136</t>
+  </si>
+  <si>
+    <t>DEO Black &amp; White (male)</t>
+  </si>
+  <si>
+    <t>C140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIR Repair (Intense and Long) </t>
+  </si>
+  <si>
+    <t>C142</t>
+  </si>
+  <si>
+    <t>MEN Face Sensitive Moisturizer</t>
+  </si>
+  <si>
+    <t>C146</t>
+  </si>
+  <si>
+    <t>MEN Oil Control Moisturizer</t>
+  </si>
+  <si>
+    <t>C149</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO Soft &amp; Cream Wipes</t>
+  </si>
+  <si>
+    <t>C150</t>
+  </si>
+  <si>
+    <t>LABELLO Pure &amp; Natural</t>
+  </si>
+  <si>
+    <t>C151</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Pure &amp; Natural</t>
+  </si>
+  <si>
+    <t>C152</t>
+  </si>
+  <si>
+    <t>LABELLO SOS Lip Repair</t>
+  </si>
+  <si>
+    <t>C153</t>
+  </si>
+  <si>
+    <t>NIVEA SOS Lip Repair</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>SUN Protect &amp; Bronze Lotion</t>
+  </si>
+  <si>
+    <t>C174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOWER Intimo Range </t>
+  </si>
+  <si>
+    <t>C183</t>
+  </si>
+  <si>
+    <t>LABELLO Umbrella Brand</t>
+  </si>
+  <si>
+    <t>C184</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Umbrella Brand</t>
+  </si>
+  <si>
+    <t>C185</t>
+  </si>
+  <si>
+    <t>LABELLO Vitamin Shake</t>
+  </si>
+  <si>
+    <t>C186</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Vitamin Shake</t>
+  </si>
+  <si>
+    <t>C187</t>
+  </si>
+  <si>
+    <t>LABELLO Fruit Edition</t>
+  </si>
+  <si>
+    <t>C188</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Fruit Edition</t>
+  </si>
+  <si>
+    <t>C189</t>
+  </si>
+  <si>
+    <t>LABELLO Love Therapy</t>
+  </si>
+  <si>
+    <t>C190</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Love Therapy</t>
+  </si>
+  <si>
+    <t>C191</t>
+  </si>
+  <si>
+    <t>LABELLO Lip Butter</t>
+  </si>
+  <si>
+    <t>C192</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Butter</t>
+  </si>
+  <si>
+    <t>C193</t>
+  </si>
+  <si>
+    <t>LABELLO Repair &amp; Beauty</t>
+  </si>
+  <si>
+    <t>C194</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Repair &amp; Beauty</t>
+  </si>
+  <si>
+    <t>C196</t>
+  </si>
+  <si>
+    <t>HAIR Hydro Care Shampoo&amp;Cond.</t>
+  </si>
+  <si>
+    <t>C197</t>
+  </si>
+  <si>
+    <t>BODY Q10 Firming</t>
+  </si>
+  <si>
+    <t>C198</t>
+  </si>
+  <si>
+    <t>BODY In Shower Body Lotion/Milk</t>
+  </si>
+  <si>
+    <t>C199</t>
+  </si>
+  <si>
+    <t>BODY Q10 Cellulite</t>
+  </si>
+  <si>
+    <t>C200</t>
+  </si>
+  <si>
+    <t>BODY Q10 Oil</t>
+  </si>
+  <si>
+    <t>C201</t>
+  </si>
+  <si>
+    <t>APC Soft</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>FACE Essentials Care</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>FACE Essentials Cleansing</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>FACE Q10 Care</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>FACE Q10 Cleansing</t>
+  </si>
+  <si>
+    <t>C206</t>
+  </si>
+  <si>
+    <t>FACE Pure &amp; Natural Care</t>
+  </si>
+  <si>
+    <t>C207</t>
+  </si>
+  <si>
+    <t>FACE Pure &amp; Natural Cleansing</t>
+  </si>
+  <si>
+    <t>C209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN Pure &amp; Sensitive Adults </t>
+  </si>
+  <si>
+    <t>C210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN Pure &amp; Sensitive Kids </t>
+  </si>
+  <si>
+    <t>C211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN Protect &amp; Bronze Spray </t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>DEO Pearl &amp; Beauty</t>
+  </si>
+  <si>
+    <t>C216</t>
+  </si>
+  <si>
+    <t>DEO Sensitive for Men</t>
+  </si>
+  <si>
+    <t>C217</t>
+  </si>
+  <si>
+    <t>SHOWER Men Pure Impact</t>
+  </si>
+  <si>
+    <t>C218</t>
+  </si>
+  <si>
+    <t>MEN Skin Energy Moisturizer</t>
+  </si>
+  <si>
+    <t>C233</t>
+  </si>
+  <si>
+    <t>MEN Sensitive AS Balm/Lotion/Fluid</t>
+  </si>
+  <si>
+    <t>C235</t>
+  </si>
+  <si>
+    <t>DEO Whitening MALE</t>
+  </si>
+  <si>
+    <t>C236</t>
+  </si>
+  <si>
+    <t>DEO Whitening FEMALE</t>
+  </si>
+  <si>
+    <t>C238</t>
+  </si>
+  <si>
+    <t>DEO Pure &amp; Sensitive</t>
+  </si>
+  <si>
+    <t>C240</t>
+  </si>
+  <si>
+    <t>HAIR Care Volume Sensation</t>
+  </si>
+  <si>
+    <t>C244</t>
+  </si>
+  <si>
+    <t>BODY Basic Care Serum/Intense Moisture Serum</t>
+  </si>
+  <si>
+    <t>C246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN Oil Control Cleanser </t>
+  </si>
+  <si>
+    <t>C248</t>
+  </si>
+  <si>
+    <t>MEN Mud Foam</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>MEN Silver Protect</t>
+  </si>
+  <si>
+    <t>C251</t>
+  </si>
+  <si>
+    <t>DEO Happy Shave</t>
+  </si>
+  <si>
+    <t>C252</t>
+  </si>
+  <si>
+    <t>FACE Cellular Anti Age Care</t>
+  </si>
+  <si>
+    <t>C260</t>
+  </si>
+  <si>
+    <t>FACE Deep Sea Algae Care</t>
+  </si>
+  <si>
+    <t>C261</t>
+  </si>
+  <si>
+    <t>FACE Deep Sea Algae Cleansing</t>
+  </si>
+  <si>
+    <t>C262</t>
+  </si>
+  <si>
+    <t>BODY Whitening Basic</t>
+  </si>
+  <si>
+    <t>C263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY Whitening Serum </t>
+  </si>
+  <si>
+    <t>C264</t>
+  </si>
+  <si>
+    <t>BODY Nourishing Milk/Intense Moisture</t>
+  </si>
+  <si>
+    <t>C265</t>
+  </si>
+  <si>
+    <t>BODY Smooth Milk</t>
+  </si>
+  <si>
+    <t>C267</t>
+  </si>
+  <si>
+    <t>BODY Musk</t>
+  </si>
+  <si>
+    <t>C268</t>
+  </si>
+  <si>
+    <t>BODY for Men</t>
+  </si>
+  <si>
+    <t>C269</t>
+  </si>
+  <si>
+    <t>SUN Protect &amp; Refresh Aerosol</t>
+  </si>
+  <si>
+    <t>C270</t>
+  </si>
+  <si>
+    <t>DEO Stress Protect female</t>
+  </si>
+  <si>
+    <t>C271</t>
+  </si>
+  <si>
+    <t>DEO Stress Protect male</t>
+  </si>
+  <si>
+    <t>C272</t>
+  </si>
+  <si>
+    <t>MEN Originals AS Balm/Lotion/Fluid</t>
+  </si>
+  <si>
+    <t>C273</t>
+  </si>
+  <si>
+    <t>MEN Originals Moisturizer</t>
+  </si>
+  <si>
+    <t>C274</t>
+  </si>
+  <si>
+    <t>MEN Active Age Moisturizer</t>
+  </si>
+  <si>
+    <t>C275</t>
+  </si>
+  <si>
+    <t>SHOWER Supreme Touch</t>
+  </si>
+  <si>
+    <t>C277</t>
+  </si>
+  <si>
+    <t>SHOWER Men Energy</t>
+  </si>
+  <si>
+    <t>C278</t>
+  </si>
+  <si>
+    <t>SHOWER Men Sport</t>
+  </si>
+  <si>
+    <t>C279</t>
+  </si>
+  <si>
+    <t>LABELLO Classic</t>
+  </si>
+  <si>
+    <t>C280</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Classic</t>
+  </si>
+  <si>
+    <t>C290</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Bottom Ointment</t>
+  </si>
+  <si>
+    <t>C291</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Nutri Sensitive</t>
+  </si>
+  <si>
+    <t>C292</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Gentle Shampoo &amp; Bath</t>
+  </si>
+  <si>
+    <t>C297</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Sun Protect Lotion</t>
+  </si>
+  <si>
+    <t>C299</t>
+  </si>
+  <si>
+    <t>HAIR Men Pure Impact Shampoo</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEO Silver Protect Range </t>
+  </si>
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>HAIR Diamond Volume</t>
+  </si>
+  <si>
+    <t>C301</t>
+  </si>
+  <si>
+    <t>MEN Whitening Moisturizer</t>
+  </si>
+  <si>
+    <t>C302</t>
+  </si>
+  <si>
+    <t>MEN Whitening Cleanser</t>
+  </si>
+  <si>
+    <t>C303</t>
+  </si>
+  <si>
+    <t>MEN Skin Energy AS Balm, Fluid</t>
+  </si>
+  <si>
+    <t>C308</t>
+  </si>
+  <si>
+    <t>MEN Originals Shaving</t>
+  </si>
+  <si>
+    <t>C309</t>
+  </si>
+  <si>
+    <t>LABELLO Hydro Care</t>
+  </si>
+  <si>
+    <t>C310</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Hydro Care</t>
+  </si>
+  <si>
+    <t>C319</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Milk</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>HAIR Anti-Dandruff Men</t>
+  </si>
+  <si>
+    <t>C320</t>
+  </si>
+  <si>
+    <t>NIVEA Baby/BAMBINO  Pure &amp; Sensitive</t>
+  </si>
+  <si>
+    <t>C321</t>
+  </si>
+  <si>
+    <t>FACE Pure &amp; Natural Anti-Age</t>
+  </si>
+  <si>
+    <t>C322</t>
+  </si>
+  <si>
+    <t>DEO Dry (male)</t>
+  </si>
+  <si>
+    <t>C323</t>
+  </si>
+  <si>
+    <t>FACE Q10 Energy Cream</t>
+  </si>
+  <si>
+    <t>C324</t>
+  </si>
+  <si>
+    <t>DEO Stress Protect unisex</t>
+  </si>
+  <si>
+    <t>C325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACE Aqua Sensation </t>
+  </si>
+  <si>
+    <t>C326</t>
+  </si>
+  <si>
+    <t>FACE BB Cream</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>HAIR Anti-Dandruff Women</t>
+  </si>
+  <si>
+    <t>C331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN Water Gel </t>
+  </si>
+  <si>
+    <t>C334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOWER Body Wash Series </t>
+  </si>
+  <si>
+    <t>C335</t>
+  </si>
+  <si>
+    <t>BODY Premium Milk (Gel)</t>
+  </si>
+  <si>
+    <t>C338</t>
+  </si>
+  <si>
+    <t>MEN Sensitive Shaving</t>
+  </si>
+  <si>
+    <t>C341</t>
+  </si>
+  <si>
+    <t>BODY Happy Time</t>
+  </si>
+  <si>
+    <t>C342</t>
+  </si>
+  <si>
+    <t>FACE Aqua Toner</t>
+  </si>
+  <si>
+    <t>C343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN Moisture </t>
+  </si>
+  <si>
+    <t>C345</t>
+  </si>
+  <si>
+    <t>BODY Q10 Panties&amp;Leggings</t>
+  </si>
+  <si>
+    <t>C346</t>
+  </si>
+  <si>
+    <t>BODY In Shower Cocoa</t>
+  </si>
+  <si>
+    <t>C347</t>
+  </si>
+  <si>
+    <t>FACE Q10 Serum Pearls</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>SUN Protect &amp; Refresh Lotion</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>DEO Powder Touch or Comfort / Talc or Satin Sens.</t>
+  </si>
+  <si>
+    <t>C350</t>
+  </si>
+  <si>
+    <t>SHOWER Creme Care/Smooth</t>
+  </si>
+  <si>
+    <t>C351</t>
+  </si>
+  <si>
+    <t>HAIR Color Care</t>
+  </si>
+  <si>
+    <t>C352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair Styling Megastrong </t>
+  </si>
+  <si>
+    <t>C353</t>
+  </si>
+  <si>
+    <t>MEN Sensitive Cool AS Balm/Lotion/Fluid</t>
+  </si>
+  <si>
+    <t>C354</t>
+  </si>
+  <si>
+    <t>MEN Sensitive Cool Shaving</t>
+  </si>
+  <si>
+    <t>C355</t>
+  </si>
+  <si>
+    <t>MEN Skin Energy Shaving</t>
+  </si>
+  <si>
+    <t>C358</t>
+  </si>
+  <si>
+    <t>BODY Milk Cocoa</t>
+  </si>
+  <si>
+    <t>C359</t>
+  </si>
+  <si>
+    <t>HAIR Care Conditioner</t>
+  </si>
+  <si>
+    <t>C360</t>
+  </si>
+  <si>
+    <t>FACE Makeup Starter Serum</t>
+  </si>
+  <si>
+    <t>C361</t>
+  </si>
+  <si>
+    <t>FACE Essentials Eye Make-Up Remover</t>
+  </si>
+  <si>
+    <t>C362</t>
+  </si>
+  <si>
+    <t>NIVEA Care Cream Max Face</t>
+  </si>
+  <si>
+    <t>C363</t>
+  </si>
+  <si>
+    <t>BODY In Shower Q10/Firming</t>
+  </si>
+  <si>
+    <t>C364</t>
+  </si>
+  <si>
+    <t>FACE Sensitive Day Cream</t>
+  </si>
+  <si>
+    <t>C365</t>
+  </si>
+  <si>
+    <t>FACE Sensitive Cleansing</t>
+  </si>
+  <si>
+    <t>C366</t>
+  </si>
+  <si>
+    <t>FACE In Shower Make-Up Remover</t>
+  </si>
+  <si>
+    <t>C367</t>
+  </si>
+  <si>
+    <t>FACE Cellular Radiance</t>
+  </si>
+  <si>
+    <t>C368</t>
+  </si>
+  <si>
+    <t>SUN UV Care</t>
+  </si>
+  <si>
+    <t>C369</t>
+  </si>
+  <si>
+    <t>DEO Protect &amp; Care female</t>
+  </si>
+  <si>
+    <t>C370</t>
+  </si>
+  <si>
+    <t>DEO Protect &amp; Care male</t>
+  </si>
+  <si>
+    <t>C371</t>
+  </si>
+  <si>
+    <t>HAIR Smart Repair</t>
+  </si>
+  <si>
+    <t>C372</t>
+  </si>
+  <si>
+    <t>HAIR Men Active Clean Charcoal</t>
+  </si>
+  <si>
+    <t>C373</t>
+  </si>
+  <si>
+    <t>MEN Creme</t>
+  </si>
+  <si>
+    <t>C374</t>
+  </si>
+  <si>
+    <t>NIVEA Care Cream Whitening Face</t>
+  </si>
+  <si>
+    <t>C377</t>
+  </si>
+  <si>
+    <t>NIVEA David</t>
+  </si>
+  <si>
+    <t>C379</t>
+  </si>
+  <si>
+    <t>Hair/Shower Men Active Clean Charcoal</t>
+  </si>
+  <si>
+    <t>C381</t>
+  </si>
+  <si>
+    <t>LABELLO Care &amp; Colour</t>
+  </si>
+  <si>
+    <t>C382</t>
+  </si>
+  <si>
+    <t>NIVEA Lip Care &amp; Colour</t>
+  </si>
+  <si>
+    <t>C383</t>
+  </si>
+  <si>
+    <t>Deo Fresh Power female</t>
+  </si>
+  <si>
+    <t>C384</t>
+  </si>
+  <si>
+    <t>Deo Fresh Power male</t>
+  </si>
+  <si>
+    <t>C385</t>
+  </si>
+  <si>
+    <t>BODY Q10 Relaxed Legs</t>
+  </si>
+  <si>
+    <t>C390</t>
+  </si>
+  <si>
+    <t>MEN Protect &amp; Care Body Shaving Stick</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>FACE Pure Effect Care</t>
+  </si>
+  <si>
+    <t>C78</t>
+  </si>
+  <si>
+    <t>MEN Q 10 Gel</t>
+  </si>
+  <si>
+    <t>C79</t>
+  </si>
+  <si>
+    <t>MEN Sport Events</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>HAIR Diamond Gloss</t>
+  </si>
+  <si>
+    <t>C9928</t>
+  </si>
+  <si>
+    <t>NIVEA CREME Blue Tin</t>
+  </si>
+  <si>
+    <t>C9960</t>
+  </si>
+  <si>
+    <t>Men Soccer/Icehockey Sponsoring</t>
+  </si>
+  <si>
+    <t>C9992</t>
+  </si>
+  <si>
+    <t>BODY Hand all campaigns</t>
+  </si>
+  <si>
+    <t>C9996</t>
+  </si>
+  <si>
+    <t>NIVEA CREME Around the World</t>
+  </si>
+  <si>
+    <t>zmc001</t>
+  </si>
+  <si>
+    <t>zmc002</t>
+  </si>
+  <si>
+    <t>zmc003</t>
+  </si>
+  <si>
+    <t>zmc004</t>
+  </si>
+  <si>
+    <t>zmc005</t>
+  </si>
+  <si>
+    <t>zmc006</t>
+  </si>
+  <si>
+    <t>zmc007</t>
+  </si>
+  <si>
+    <t>zmc008</t>
+  </si>
+  <si>
+    <t>zmc009</t>
+  </si>
+  <si>
+    <t>zmc010</t>
+  </si>
+  <si>
+    <t>zmc011</t>
+  </si>
+  <si>
+    <t>zmc012</t>
+  </si>
+  <si>
+    <t>zmc013</t>
+  </si>
+  <si>
+    <t>zmc014</t>
+  </si>
+  <si>
+    <t>zmc015</t>
+  </si>
+  <si>
+    <t>zmc016</t>
+  </si>
+  <si>
+    <t>zmc017</t>
+  </si>
+  <si>
+    <t>zmc018</t>
+  </si>
+  <si>
+    <t>zmc019</t>
+  </si>
+  <si>
+    <t>zmc020</t>
+  </si>
+  <si>
+    <t>zmc021</t>
+  </si>
+  <si>
+    <t>zmc022</t>
+  </si>
+  <si>
+    <t>zmc023</t>
+  </si>
+  <si>
+    <t>zmc024</t>
+  </si>
+  <si>
+    <t>zmc025</t>
+  </si>
+  <si>
+    <t>zmc026</t>
+  </si>
+  <si>
+    <t>zmc027</t>
+  </si>
+  <si>
+    <t>zmc028</t>
+  </si>
+  <si>
+    <t>zmc029</t>
+  </si>
+  <si>
+    <t>zmc030</t>
+  </si>
+  <si>
+    <t>zmc031</t>
+  </si>
+  <si>
+    <t>zmc032</t>
+  </si>
+  <si>
+    <t>zmc033</t>
+  </si>
+  <si>
+    <t>zmc034</t>
+  </si>
+  <si>
+    <t>zmc035</t>
+  </si>
+  <si>
+    <t>zmc036</t>
+  </si>
+  <si>
+    <t>zmc037</t>
+  </si>
+  <si>
+    <t>zmc038</t>
+  </si>
+  <si>
+    <t>zmc039</t>
+  </si>
+  <si>
+    <t>zmc040</t>
+  </si>
+  <si>
+    <t>zmc041</t>
+  </si>
+  <si>
+    <t>zmc042</t>
+  </si>
+  <si>
+    <t>zmc043</t>
+  </si>
+  <si>
+    <t>zmc044</t>
+  </si>
+  <si>
+    <t>zmc045</t>
+  </si>
+  <si>
+    <t>zmc046</t>
+  </si>
+  <si>
+    <t>zmc047</t>
+  </si>
+  <si>
+    <t>zmc048</t>
+  </si>
+  <si>
+    <t>zmc049</t>
+  </si>
+  <si>
+    <t>zmc050</t>
+  </si>
+  <si>
+    <t>zmc051</t>
+  </si>
+  <si>
+    <t>zmc052</t>
+  </si>
+  <si>
+    <t>zmc053</t>
+  </si>
+  <si>
+    <t>zmc054</t>
+  </si>
+  <si>
+    <t>zmc055</t>
+  </si>
+  <si>
+    <t>zmc056</t>
+  </si>
+  <si>
+    <t>zmc057</t>
+  </si>
+  <si>
+    <t>zmc058</t>
+  </si>
+  <si>
+    <t>zmc059</t>
+  </si>
+  <si>
+    <t>zmc060</t>
+  </si>
+  <si>
+    <t>zmc061</t>
+  </si>
+  <si>
+    <t>zmc062</t>
+  </si>
+  <si>
+    <t>zmc063</t>
+  </si>
+  <si>
+    <t>zmc064</t>
+  </si>
+  <si>
+    <t>zmc065</t>
+  </si>
+  <si>
+    <t>zmc066</t>
+  </si>
+  <si>
+    <t>zmc067</t>
+  </si>
+  <si>
+    <t>zmc068</t>
+  </si>
+  <si>
+    <t>zmc069</t>
+  </si>
+  <si>
+    <t>zmc070</t>
+  </si>
+  <si>
+    <t>zmc071</t>
+  </si>
+  <si>
+    <t>zmc072</t>
+  </si>
+  <si>
+    <t>zmc073</t>
+  </si>
+  <si>
+    <t>zmc074</t>
+  </si>
+  <si>
+    <t>zmc075</t>
+  </si>
+  <si>
+    <t>zmc076</t>
+  </si>
+  <si>
+    <t>zmc077</t>
+  </si>
+  <si>
+    <t>zmc078</t>
+  </si>
+  <si>
+    <t>zmc079</t>
+  </si>
+  <si>
+    <t>zmc080</t>
+  </si>
+  <si>
+    <t>zmc081</t>
+  </si>
+  <si>
+    <t>zmc082</t>
+  </si>
+  <si>
+    <t>zmc083</t>
+  </si>
+  <si>
+    <t>zmc084</t>
+  </si>
+  <si>
+    <t>zmc085</t>
+  </si>
+  <si>
+    <t>zmc086</t>
+  </si>
+  <si>
+    <t>zmc087</t>
+  </si>
+  <si>
+    <t>zmc088</t>
+  </si>
+  <si>
+    <t>zmc089</t>
+  </si>
+  <si>
+    <t>zmc090</t>
+  </si>
+  <si>
+    <t>zmc091</t>
+  </si>
+  <si>
+    <t>zmc092</t>
+  </si>
+  <si>
+    <t>zmc093</t>
+  </si>
+  <si>
+    <t>zmc094</t>
+  </si>
+  <si>
+    <t>zmc095</t>
+  </si>
+  <si>
+    <t>zmc096</t>
+  </si>
+  <si>
+    <t>zmc097</t>
+  </si>
+  <si>
+    <t>zmc098</t>
+  </si>
+  <si>
+    <t>zmc099</t>
+  </si>
+  <si>
+    <t>zmc100</t>
+  </si>
+  <si>
+    <t>zmc101</t>
+  </si>
+  <si>
+    <t>zmc102</t>
+  </si>
+  <si>
+    <t>zmc103</t>
+  </si>
+  <si>
+    <t>zmc104</t>
+  </si>
+  <si>
+    <t>zmc105</t>
+  </si>
+  <si>
+    <t>zmc106</t>
+  </si>
+  <si>
+    <t>zmc107</t>
+  </si>
+  <si>
+    <t>zmc108</t>
+  </si>
+  <si>
+    <t>zmc109</t>
+  </si>
+  <si>
+    <t>zmc110</t>
+  </si>
+  <si>
+    <t>zmc111</t>
+  </si>
+  <si>
+    <t>zmc112</t>
+  </si>
+  <si>
+    <t>zmc113</t>
+  </si>
+  <si>
+    <t>zmc114</t>
+  </si>
+  <si>
+    <t>zmc115</t>
+  </si>
+  <si>
+    <t>zmc116</t>
+  </si>
+  <si>
+    <t>zmc117</t>
+  </si>
+  <si>
+    <t>zmc118</t>
+  </si>
+  <si>
+    <t>zmc119</t>
+  </si>
+  <si>
+    <t>zmc120</t>
+  </si>
+  <si>
+    <t>zmc121</t>
+  </si>
+  <si>
+    <t>zmc122</t>
+  </si>
+  <si>
+    <t>zmc123</t>
+  </si>
+  <si>
+    <t>zmc124</t>
+  </si>
+  <si>
+    <t>zmc125</t>
+  </si>
+  <si>
+    <t>zmc126</t>
+  </si>
+  <si>
+    <t>zmc127</t>
+  </si>
+  <si>
+    <t>zmc128</t>
+  </si>
+  <si>
+    <t>zmc129</t>
+  </si>
+  <si>
+    <t>zmc130</t>
+  </si>
+  <si>
+    <t>zmc131</t>
+  </si>
+  <si>
+    <t>zmc132</t>
+  </si>
+  <si>
+    <t>zmc133</t>
+  </si>
+  <si>
+    <t>zmc134</t>
+  </si>
+  <si>
+    <t>zmc135</t>
+  </si>
+  <si>
+    <t>zmc136</t>
+  </si>
+  <si>
+    <t>zmc137</t>
+  </si>
+  <si>
+    <t>zmc138</t>
+  </si>
+  <si>
+    <t>zmc139</t>
+  </si>
+  <si>
+    <t>zmc140</t>
+  </si>
+  <si>
+    <t>zmc141</t>
+  </si>
+  <si>
+    <t>zmc142</t>
+  </si>
+  <si>
+    <t>zmc143</t>
+  </si>
+  <si>
+    <t>zmc144</t>
+  </si>
+  <si>
+    <t>zmc145</t>
+  </si>
+  <si>
+    <t>zmc146</t>
+  </si>
+  <si>
+    <t>zmc147</t>
+  </si>
+  <si>
+    <t>zmc148</t>
+  </si>
+  <si>
+    <t>zmc149</t>
+  </si>
+  <si>
+    <t>zmc150</t>
+  </si>
+  <si>
+    <t>zmc151</t>
+  </si>
+  <si>
+    <t>zmc152</t>
+  </si>
+  <si>
+    <t>zmc153</t>
+  </si>
+  <si>
+    <t>zmc154</t>
+  </si>
+  <si>
+    <t>zmc155</t>
+  </si>
+  <si>
+    <t>zmc156</t>
+  </si>
+  <si>
+    <t>zmc157</t>
+  </si>
+  <si>
+    <t>zmc158</t>
+  </si>
+  <si>
+    <t>zmc159</t>
+  </si>
+  <si>
+    <t>fcode</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>MARS Campaign</t>
+  </si>
+  <si>
+    <t>MARS Campaign Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -1918,18 +3604,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="90.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,7 +3746,7 @@
         <v>142</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,13 +3773,13 @@
     </row>
     <row r="29" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,22 +3839,22 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="150">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="150">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2187,21 +3873,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,11 +4024,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="139">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="139">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2354,18 +4040,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D14"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2385,34 +4071,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,85 +4106,112 @@
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>193</v>
+      <c r="B9" s="33" t="s">
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>292</v>
+      <c r="B12" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>294</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
+  <sortState ref="A2:D14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:D1194"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="125" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:D1194"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="125" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:D1194"/>
     </customSheetView>
@@ -2509,34 +4222,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:S10"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2600,7 +4313,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -2623,7 +4336,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -2644,26 +4357,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>31</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -2672,7 +4391,7 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -2680,16 +4399,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" t="s">
         <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -2697,7 +4416,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -2706,79 +4425,96 @@
         <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" t="s">
         <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:S35"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="93" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
       <autoFilter ref="A1:S43"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="93" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-      <autoFilter ref="A1:S35"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2788,28 +4524,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2841,18 +4577,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
         <v>139</v>
@@ -2863,11 +4599,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="107">
+    <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="107">
       <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2879,32 +4615,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P34"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.125" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2959,10 +4695,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29" t="s">
@@ -2973,7 +4709,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="29" t="s">
@@ -2987,10 +4723,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -3001,7 +4737,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29" t="s">
@@ -3015,192 +4751,205 @@
     </row>
     <row r="4" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>350</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>137</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" t="s">
+        <v>199</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>137</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="M14" s="29" t="s">
         <v>30</v>
@@ -3211,16 +4960,16 @@
     </row>
     <row r="15" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="M15" s="29" t="s">
         <v>30</v>
@@ -3231,10 +4980,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
@@ -3245,7 +4994,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29" t="s">
@@ -3259,10 +5008,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -3273,7 +5022,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29" t="s">
@@ -3287,10 +5036,10 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
@@ -3301,7 +5050,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29" t="s">
@@ -3315,10 +5064,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -3329,7 +5078,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29" t="s">
@@ -3343,144 +5092,139 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>200</v>
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" t="s">
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>105</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="M21" t="s">
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
       <c r="K22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>120</v>
       </c>
       <c r="P25" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="s">
         <v>30</v>
       </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
         <v>194</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29" t="s">
@@ -3489,27 +5233,27 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
       <c r="P27" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29" t="s">
@@ -3518,27 +5262,27 @@
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
       <c r="P28" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
         <v>194</v>
       </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29" t="s">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29" t="s">
@@ -3547,27 +5291,27 @@
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L30" s="29"/>
       <c r="M30" s="29" t="s">
@@ -3576,89 +5320,220 @@
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>194</v>
       </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="29"/>
       <c r="K31" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K32" t="s">
-        <v>362</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="G32" s="29"/>
+      <c r="M32" s="29"/>
       <c r="P32" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
-      </c>
-      <c r="K33" t="s">
-        <v>410</v>
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
       </c>
       <c r="P33" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>417</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>416</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>462</v>
+      </c>
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>461</v>
+      </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>492</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>972</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" t="s">
+        <v>970</v>
+      </c>
+      <c r="K40" t="s">
+        <v>973</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1"/>
-  <sortState ref="A2:Q114">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:P33">
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="F2:F33"/>
+    <sortCondition ref="G2:G33"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:P2390"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" scale="90" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:P2402"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" scale="90" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:P2390"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3668,31 +5543,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U112"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="43" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="68.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" style="29" customWidth="1"/>
-    <col min="13" max="15" width="14.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="68.375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="31.625" style="29" customWidth="1"/>
+    <col min="13" max="15" width="14.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="17" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11" style="29"/>
   </cols>
@@ -3764,57 +5639,57 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -3822,7 +5697,7 @@
         <v>188</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>32</v>
@@ -3833,7 +5708,7 @@
         <v>188</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>30</v>
@@ -3844,7 +5719,7 @@
         <v>189</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>106</v>
@@ -3867,7 +5742,7 @@
         <v>189</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>113</v>
@@ -3890,7 +5765,7 @@
         <v>189</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>107</v>
@@ -3913,7 +5788,7 @@
         <v>189</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>108</v>
@@ -3936,7 +5811,7 @@
         <v>189</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>109</v>
@@ -3959,7 +5834,7 @@
         <v>189</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>110</v>
@@ -3982,7 +5857,7 @@
         <v>189</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>111</v>
@@ -4005,7 +5880,7 @@
         <v>189</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>112</v>
@@ -4028,7 +5903,7 @@
         <v>189</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>114</v>
@@ -4051,7 +5926,7 @@
         <v>189</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>115</v>
@@ -4071,553 +5946,545 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>127</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>128</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>190</v>
+        <v>409</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>191</v>
+        <v>409</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+        <v>251</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>222</v>
+      <c r="H55" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>135</v>
+        <v>203</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="29" t="s">
-        <v>202</v>
-      </c>
       <c r="G57" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>203</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>217</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="29" t="s">
-        <v>204</v>
-      </c>
       <c r="G59" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G60" s="29" t="s">
-        <v>217</v>
-      </c>
       <c r="H60" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F61" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>220</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>221</v>
@@ -4627,686 +6494,3329 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G63" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H63" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>330</v>
+        <v>200</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>331</v>
+        <v>200</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="H81" s="29" t="s">
-        <v>281</v>
+        <v>192</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="H82" s="29" t="s">
-        <v>283</v>
+        <v>192</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>291</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>300</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="29" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="29" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>396</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="29" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="H97" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>397</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H98" s="28" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H104" s="28" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H105" s="28" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I108" s="28" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H109" s="28" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I110" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="I113" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H120" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="H123" s="28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="H136" s="28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H137" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="H139" s="28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H140" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="H141" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="H143" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="H145" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="H146" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H147" s="28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G148" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="H148" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G149" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="H149" s="28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="H150" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="I150" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="H151" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="I151" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="H152" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="I152" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="H153" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="I153" s="28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="H154" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="I154" s="28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G155" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="H155" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="I155" s="28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="H156" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="I156" s="28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H157" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="I157" s="28" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="H158" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="I158" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H159" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="I159" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H160" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="I160" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G161" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="H161" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I161" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="H162" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="I162" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G163" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="H163" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="I163" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="I164" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H165" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="I165" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="H166" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="I166" s="28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="H167" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="I167" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="H168" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="I168" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="I170" s="28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="H171" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="I171" s="28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H172" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="I172" s="28" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="I174" s="28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G175" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="I175" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G176" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="H176" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G177" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="H177" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="I177" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G178" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="H178" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="I178" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G179" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="H179" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="I179" s="28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G180" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H180" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="I180" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G181" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="H181" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="I181" s="28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G182" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="H182" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="I182" s="28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G183" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="H183" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="I183" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G184" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="H184" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="I184" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G185" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="H185" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="I185" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G186" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="H186" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="I186" s="28" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G187" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="H187" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="I187" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G188" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="H188" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="I188" s="28" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G189" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="H189" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="I189" s="28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G190" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="H190" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="I190" s="28" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G191" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="H191" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="I191" s="28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G192" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="H192" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="I192" s="28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G193" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="H193" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="I193" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G194" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="H194" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G195" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="H195" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="H196" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G197" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="H197" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="H198" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G199" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="H199" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G200" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="H200" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G201" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="H201" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G202" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="H202" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>864</v>
+      </c>
+      <c r="H203" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>865</v>
+      </c>
+      <c r="H204" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="H205" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G206" s="28" t="s">
+        <v>867</v>
+      </c>
+      <c r="H206" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G207" s="28" t="s">
+        <v>868</v>
+      </c>
+      <c r="H207" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="H208" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="H209" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="H210" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="H211" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="I211" s="28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>873</v>
+      </c>
+      <c r="H212" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="H213" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="H214" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="H215" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="H216" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G217" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="H217" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G218" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="H218" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G219" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="H219" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G220" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H220" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="I220" s="28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G221" s="28" t="s">
+        <v>882</v>
+      </c>
+      <c r="H221" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="I221" s="28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="H222" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="I222" s="28" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G223" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="H223" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="I223" s="28" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G224" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="H224" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="I224" s="28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G225" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="H225" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="I225" s="28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G226" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="H226" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="I226" s="28" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G227" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="H227" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="I227" s="28" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G228" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="H228" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="I228" s="28" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G229" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="H229" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="I229" s="28" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G230" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="H230" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="I230" s="28" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G231" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="H231" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="I231" s="28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G232" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H232" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="I232" s="28" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G233" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="H233" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="I233" s="28" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G234" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="H234" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="I234" s="28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G235" s="28" t="s">
+        <v>896</v>
+      </c>
+      <c r="H235" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="I235" s="28" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G236" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="H236" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="I236" s="28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G237" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="H237" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="I237" s="28" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G238" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="H238" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="I238" s="28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G239" s="28" t="s">
+        <v>900</v>
+      </c>
+      <c r="H239" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="I239" s="28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G240" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="H240" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="I240" s="28" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G241" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="H241" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="I241" s="28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G242" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="H242" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="I242" s="28" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G243" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="H243" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="I243" s="28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G244" s="28" t="s">
+        <v>905</v>
+      </c>
+      <c r="H244" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="I244" s="28" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G245" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="H245" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="I245" s="28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G246" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="H246" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="I246" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G247" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="H247" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="I247" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G248" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="H248" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="I248" s="28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G249" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="H249" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="I249" s="28" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G250" s="28" t="s">
+        <v>911</v>
+      </c>
+      <c r="H250" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="I250" s="28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G251" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="H251" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="I251" s="28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G252" s="28" t="s">
+        <v>913</v>
+      </c>
+      <c r="H252" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="I252" s="28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G253" s="28" t="s">
+        <v>914</v>
+      </c>
+      <c r="H253" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="I253" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G254" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="H254" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="I254" s="28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G255" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="H255" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="I255" s="28" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G256" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="H256" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="I256" s="28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G257" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="H257" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="I257" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G258" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="H258" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="I258" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G259" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="H259" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="I259" s="28" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G260" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="H260" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="I260" s="28" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G261" s="28" t="s">
+        <v>922</v>
+      </c>
+      <c r="H261" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="I261" s="28" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G262" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="H262" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="I262" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G263" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="H263" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="I263" s="28" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B264" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G264" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="H264" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="I264" s="28" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G265" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="H265" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="I265" s="28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G266" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="H266" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="I266" s="28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G267" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="H267" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="I267" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B268" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G268" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="H268" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="I268" s="28" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B269" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G269" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="H269" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="I269" s="28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G270" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="H270" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G271" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="H271" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="I271" s="28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G272" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="H272" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="I272" s="28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G273" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="H273" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="I273" s="28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G274" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="H274" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="I274" s="28" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G275" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="H275" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="I275" s="28" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G276" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="H276" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="I276" s="28" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G277" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="H277" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G278" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="H278" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="I278" s="28" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G279" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="H279" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G280" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="H280" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G281" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="H281" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G282" s="28" t="s">
+        <v>943</v>
+      </c>
+      <c r="H282" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>944</v>
+      </c>
+      <c r="H283" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B284" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G284" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="H284" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B285" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G285" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="H285" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B286" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G286" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="H286" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="I286" s="28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G287" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="H287" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="I287" s="28" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G288" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="H288" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="I288" s="28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G289" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="H289" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="I289" s="28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G290" s="28" t="s">
+        <v>951</v>
+      </c>
+      <c r="H290" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="I290" s="28" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G291" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="H291" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="I291" s="28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B292" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G292" s="28" t="s">
+        <v>953</v>
+      </c>
+      <c r="H292" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="I292" s="28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B293" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G293" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="H293" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="I293" s="28" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B294" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G294" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="H294" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="I294" s="28" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B295" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G295" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="H295" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="I295" s="28" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G296" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="H296" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="I296" s="28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B297" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G297" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="H297" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="I297" s="28" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B298" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G298" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="H298" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="I298" s="28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G299" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="H299" s="28" t="s">
+        <v>792</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G300" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="H300" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B301" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G301" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H301" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B302" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G302" s="28" t="s">
+        <v>963</v>
+      </c>
+      <c r="H302" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="I302" s="28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G303" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="H303" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="I303" s="28" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B304" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G304" s="28" t="s">
+        <v>965</v>
+      </c>
+      <c r="H304" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="I304" s="28" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B305" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G305" s="28" t="s">
+        <v>966</v>
+      </c>
+      <c r="H305" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="I305" s="28" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B306" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G306" s="28" t="s">
+        <v>967</v>
+      </c>
+      <c r="H306" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="I306" s="28" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B307" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G307" s="28" t="s">
+        <v>968</v>
+      </c>
+      <c r="H307" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="I307" s="28" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="G308" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="H308" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="I308" s="28" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <customSheetViews>
+    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
+      <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:U88662"/>
+    </customSheetView>
     <customSheetView guid="{F370B4E9-6EF8-7A46-9C9D-1B3D4A45BDBB}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:U95065"/>
-    </customSheetView>
-    <customSheetView guid="{7B5BF384-6D74-4070-814F-9CC686E1DAC3}" showAutoFilter="1" topLeftCell="D1">
-      <pane ySplit="1" topLeftCell="A8937" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F8956" sqref="F8956"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:U88662"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5365,27 +9875,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -5563,6 +10052,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-25</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-25</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-25</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4AAD41-1536-4B20-8E6C-DCC51C90900F}">
   <ds:schemaRefs>
@@ -5572,24 +10082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB6AEA0-3DF2-4494-BDE5-510837701A22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D230FB-949A-4A81-A3AC-DBDE1CC696FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5606,4 +10098,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555FFCAF-FC77-46D2-BC80-D87BD036D3AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB6AEA0-3DF2-4494-BDE5-510837701A22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>